--- a/收支情况/租房费用.xlsx
+++ b/收支情况/租房费用.xlsx
@@ -280,6 +280,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -295,32 +307,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +687,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -698,29 +698,29 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="2"/>
@@ -807,14 +807,18 @@
       <c r="H3" s="7">
         <v>3300</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="9">
         <v>3300</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="9">
         <v>3300</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="7">
+        <v>3300</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3300</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -831,20 +835,22 @@
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>318.92</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="18">
         <v>162.16</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="14">
+      <c r="G4" s="20">
         <v>97.92</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20">
+        <v>143.62</v>
+      </c>
+      <c r="J4" s="22"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -863,25 +869,27 @@
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="7">
         <v>391.6</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="20">
         <v>1180.9000000000001</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="3">
         <v>380.6</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>395.2</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -896,19 +904,21 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="10">
         <v>105</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9">
         <v>52.5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -939,10 +949,10 @@
       <c r="F7" s="7">
         <v>28</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="9">
         <v>28</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="9">
         <v>28</v>
       </c>
       <c r="I7" s="3">
@@ -951,7 +961,9 @@
       <c r="J7" s="3">
         <v>28</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>28</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -998,7 +1010,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I1:T1"/>
@@ -1007,6 +1019,8 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/收支情况/租房费用.xlsx
+++ b/收支情况/租房费用.xlsx
@@ -316,10 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -819,8 +819,12 @@
       <c r="L3" s="7">
         <v>3300</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="6">
+        <v>3300</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3300</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -843,16 +847,18 @@
         <v>162.16</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>97.92</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="20">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18">
         <v>143.62</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20">
+        <v>119.68</v>
+      </c>
+      <c r="L4" s="21"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -879,18 +885,20 @@
       <c r="F5" s="7">
         <v>391.6</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>1180.9000000000001</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="3">
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="6">
         <v>380.6</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>395.2</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>395.2</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -914,12 +922,12 @@
       <c r="G6" s="9">
         <v>52.5</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>3.5</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -955,18 +963,24 @@
       <c r="H7" s="9">
         <v>28</v>
       </c>
-      <c r="I7" s="3">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>28</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="I7" s="6">
+        <v>28</v>
+      </c>
+      <c r="J7" s="6">
+        <v>28</v>
+      </c>
+      <c r="K7" s="6">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3">
+        <v>28</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1010,7 +1024,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I1:T1"/>
@@ -1021,6 +1035,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/收支情况/租房费用.xlsx
+++ b/收支情况/租房费用.xlsx
@@ -313,13 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -825,8 +825,12 @@
       <c r="N3" s="6">
         <v>3300</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P3" s="3">
+        <v>3400</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -855,12 +859,14 @@
         <v>143.62</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="20">
+      <c r="K4" s="21">
         <v>119.68</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="21">
+        <v>259.76</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -888,7 +894,7 @@
       <c r="G5" s="18">
         <v>1180.9000000000001</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="19"/>
       <c r="J5" s="6">
         <v>380.6</v>
@@ -899,9 +905,13 @@
       <c r="L5" s="3">
         <v>395.2</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="21">
+        <v>787.2</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="3">
+        <v>395.2</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -925,7 +935,7 @@
       <c r="H6" s="18">
         <v>3.5</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="19"/>
       <c r="K6" s="6"/>
       <c r="L6" s="3"/>
@@ -1024,7 +1034,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I1:T1"/>
@@ -1036,6 +1046,8 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
